--- a/AMC_examples_data/AMC_examples_data_ex4.xlsx
+++ b/AMC_examples_data/AMC_examples_data_ex4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\costa\Desktop\5.2\Tesi\git\AMC_Model\AMC_examples_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA89DE0-0F40-438B-9437-0A99373BFE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA46CB0F-C7A4-469E-80C1-01F167E2C1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFF8BB56-E23A-426B-9D6C-DA86724C81B1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FFF8BB56-E23A-426B-9D6C-DA86724C81B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -452,7 +452,7 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+      <selection activeCell="M3" sqref="M3:P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,16 +558,16 @@
         <v>2</v>
       </c>
       <c r="M2">
-        <v>-64</v>
+        <v>-48</v>
       </c>
       <c r="N2">
-        <v>-88</v>
+        <v>-80</v>
       </c>
       <c r="O2">
-        <v>-64</v>
+        <v>-48</v>
       </c>
       <c r="P2">
-        <v>-88</v>
+        <v>-80</v>
       </c>
       <c r="Q2" t="s">
         <v>20</v>
@@ -584,16 +584,16 @@
         <v>2</v>
       </c>
       <c r="M3">
-        <v>-48</v>
+        <v>-64</v>
       </c>
       <c r="N3">
-        <v>-80</v>
+        <v>-88</v>
       </c>
       <c r="O3">
-        <v>-48</v>
+        <v>-64</v>
       </c>
       <c r="P3">
-        <v>-80</v>
+        <v>-88</v>
       </c>
       <c r="Q3" t="s">
         <v>20</v>
